--- a/baseDesign/基本設計/Q&A一覧.xlsx
+++ b/baseDesign/基本設計/Q&A一覧.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qijinghong/Documents/基本設計書-天時情報システム/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qijinghong/Documents/tenji-sys/baseDesign/基本設計/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6584B91-B355-8A4A-B383-A6D1EBC1D977}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1EBD820-3C4C-A545-9AC2-D37652B8D5FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" xr2:uid="{56B5A34F-4AC4-554E-A8FA-212A1A1CF3FD}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="34">
   <si>
     <t>No.</t>
     <phoneticPr fontId="2"/>
@@ -426,6 +426,78 @@
     </rPh>
     <rPh sb="48" eb="50">
       <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>今回設計の営業管理システムは　使う人が限られている為、パスワード必要なくて、権限で管理するようにしたらどうですか？
+営業担当、人事・総務、契約担当、社長など権限区別して、システムに見れる機能を制御します。</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">コンカイ </t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">セッケイン </t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">エイギョウ </t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t xml:space="preserve">カンリ </t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t xml:space="preserve">ツカウ </t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t xml:space="preserve">ヒト </t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t xml:space="preserve">カギラレテイルタメ </t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t xml:space="preserve">ヒツヨウ </t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t xml:space="preserve">ケンゲン </t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t xml:space="preserve">エイギョウ </t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t xml:space="preserve">タントウ </t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t xml:space="preserve">ジンジ </t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t xml:space="preserve">ソウム </t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t xml:space="preserve">ケイヤク </t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t xml:space="preserve">タントウ </t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t xml:space="preserve">シャチョウ </t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t xml:space="preserve">クベツシテ </t>
+    </rPh>
+    <rPh sb="90" eb="91">
+      <t xml:space="preserve">ミレル </t>
+    </rPh>
+    <rPh sb="93" eb="95">
+      <t xml:space="preserve">キノウヲ </t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t xml:space="preserve">セイギョ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>済</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ズミ </t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -434,7 +506,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -456,6 +528,14 @@
       <sz val="6"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -503,7 +583,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -527,6 +607,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -844,9 +936,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EBC6D4D-3010-184B-A167-5CF8AAEFDFA5}">
   <dimension ref="B2:P33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.85546875" defaultRowHeight="20"/>
@@ -862,7 +954,7 @@
     <col min="9" max="9" width="45.28515625" style="7" customWidth="1"/>
     <col min="10" max="10" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" style="10" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="3.85546875" style="1"/>
   </cols>
@@ -898,7 +990,7 @@
       <c r="K2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="11" t="s">
         <v>9</v>
       </c>
       <c r="M2" s="2" t="s">
@@ -934,7 +1026,9 @@
       <c r="K3" s="4">
         <v>44131</v>
       </c>
-      <c r="L3" s="3"/>
+      <c r="L3" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="M3" s="3"/>
       <c r="P3" s="1" t="s">
         <v>15</v>
@@ -951,7 +1045,7 @@
       <c r="D4" s="4">
         <v>44126</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="8" t="s">
         <v>18</v>
       </c>
       <c r="F4" s="3"/>
@@ -970,7 +1064,9 @@
       <c r="K4" s="4">
         <v>44131</v>
       </c>
-      <c r="L4" s="3"/>
+      <c r="L4" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="M4" s="3"/>
       <c r="P4" s="1" t="s">
         <v>16</v>
@@ -987,7 +1083,7 @@
       <c r="D5" s="4">
         <v>44126</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="8" t="s">
         <v>19</v>
       </c>
       <c r="F5" s="3"/>
@@ -1006,7 +1102,9 @@
       <c r="K5" s="4">
         <v>44131</v>
       </c>
-      <c r="L5" s="3"/>
+      <c r="L5" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="M5" s="3"/>
       <c r="P5" s="1" t="s">
         <v>17</v>
@@ -1023,7 +1121,7 @@
       <c r="D6" s="4">
         <v>44126</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="8" t="s">
         <v>20</v>
       </c>
       <c r="F6" s="3"/>
@@ -1042,7 +1140,9 @@
       <c r="K6" s="4">
         <v>44131</v>
       </c>
-      <c r="L6" s="3"/>
+      <c r="L6" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="M6" s="3"/>
     </row>
     <row r="7" spans="2:16" ht="84">
@@ -1056,7 +1156,7 @@
       <c r="D7" s="4">
         <v>44126</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="8" t="s">
         <v>21</v>
       </c>
       <c r="F7" s="6" t="s">
@@ -1077,7 +1177,9 @@
       <c r="K7" s="4">
         <v>44131</v>
       </c>
-      <c r="L7" s="3"/>
+      <c r="L7" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="M7" s="3"/>
     </row>
     <row r="8" spans="2:16" ht="42">
@@ -1091,7 +1193,7 @@
       <c r="D8" s="4">
         <v>44131</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F8" s="3"/>
@@ -1110,7 +1212,9 @@
       <c r="K8" s="4">
         <v>44131</v>
       </c>
-      <c r="L8" s="3"/>
+      <c r="L8" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="M8" s="3"/>
     </row>
     <row r="9" spans="2:16" ht="42">
@@ -1143,10 +1247,12 @@
       <c r="K9" s="4">
         <v>44131</v>
       </c>
-      <c r="L9" s="3"/>
+      <c r="L9" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" spans="2:16">
+    <row r="10" spans="2:16" ht="105">
       <c r="B10" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1154,15 +1260,23 @@
       <c r="C10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="6"/>
+      <c r="D10" s="4">
+        <v>44146</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
+      <c r="G10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="4">
+        <v>44147</v>
+      </c>
       <c r="I10" s="6"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
+      <c r="L10" s="9"/>
       <c r="M10" s="3"/>
     </row>
     <row r="11" spans="2:16">
@@ -1181,7 +1295,7 @@
       <c r="I11" s="6"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
+      <c r="L11" s="9"/>
       <c r="M11" s="3"/>
     </row>
     <row r="12" spans="2:16">
@@ -1200,7 +1314,7 @@
       <c r="I12" s="6"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
+      <c r="L12" s="9"/>
       <c r="M12" s="3"/>
     </row>
     <row r="13" spans="2:16">
@@ -1219,7 +1333,7 @@
       <c r="I13" s="6"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
+      <c r="L13" s="9"/>
       <c r="M13" s="3"/>
     </row>
     <row r="14" spans="2:16">
@@ -1236,7 +1350,7 @@
       <c r="I14" s="6"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
+      <c r="L14" s="9"/>
       <c r="M14" s="3"/>
     </row>
     <row r="15" spans="2:16">
@@ -1253,7 +1367,7 @@
       <c r="I15" s="6"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
+      <c r="L15" s="9"/>
       <c r="M15" s="3"/>
     </row>
     <row r="16" spans="2:16">
@@ -1270,7 +1384,7 @@
       <c r="I16" s="6"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
+      <c r="L16" s="9"/>
       <c r="M16" s="3"/>
     </row>
     <row r="17" spans="2:13">
@@ -1287,7 +1401,7 @@
       <c r="I17" s="6"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
+      <c r="L17" s="9"/>
       <c r="M17" s="3"/>
     </row>
     <row r="18" spans="2:13">
@@ -1304,7 +1418,7 @@
       <c r="I18" s="6"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
+      <c r="L18" s="9"/>
       <c r="M18" s="3"/>
     </row>
     <row r="19" spans="2:13">
@@ -1321,7 +1435,7 @@
       <c r="I19" s="6"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
+      <c r="L19" s="9"/>
       <c r="M19" s="3"/>
     </row>
     <row r="20" spans="2:13">
@@ -1338,7 +1452,7 @@
       <c r="I20" s="6"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
+      <c r="L20" s="9"/>
       <c r="M20" s="3"/>
     </row>
     <row r="21" spans="2:13">
@@ -1355,7 +1469,7 @@
       <c r="I21" s="6"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
+      <c r="L21" s="9"/>
       <c r="M21" s="3"/>
     </row>
     <row r="22" spans="2:13">
@@ -1372,7 +1486,7 @@
       <c r="I22" s="6"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
+      <c r="L22" s="9"/>
       <c r="M22" s="3"/>
     </row>
     <row r="23" spans="2:13">
@@ -1389,7 +1503,7 @@
       <c r="I23" s="6"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
+      <c r="L23" s="9"/>
       <c r="M23" s="3"/>
     </row>
     <row r="24" spans="2:13">
@@ -1406,7 +1520,7 @@
       <c r="I24" s="6"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
+      <c r="L24" s="9"/>
       <c r="M24" s="3"/>
     </row>
     <row r="25" spans="2:13">
@@ -1423,7 +1537,7 @@
       <c r="I25" s="6"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
+      <c r="L25" s="9"/>
       <c r="M25" s="3"/>
     </row>
     <row r="26" spans="2:13">
@@ -1440,7 +1554,7 @@
       <c r="I26" s="6"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
+      <c r="L26" s="9"/>
       <c r="M26" s="3"/>
     </row>
     <row r="27" spans="2:13">
@@ -1457,7 +1571,7 @@
       <c r="I27" s="6"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
+      <c r="L27" s="9"/>
       <c r="M27" s="3"/>
     </row>
     <row r="28" spans="2:13">
@@ -1474,7 +1588,7 @@
       <c r="I28" s="6"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
+      <c r="L28" s="9"/>
       <c r="M28" s="3"/>
     </row>
     <row r="29" spans="2:13">
@@ -1491,7 +1605,7 @@
       <c r="I29" s="6"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
+      <c r="L29" s="9"/>
       <c r="M29" s="3"/>
     </row>
     <row r="30" spans="2:13">
@@ -1508,7 +1622,7 @@
       <c r="I30" s="6"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
+      <c r="L30" s="9"/>
       <c r="M30" s="3"/>
     </row>
     <row r="31" spans="2:13">
@@ -1525,7 +1639,7 @@
       <c r="I31" s="6"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
+      <c r="L31" s="9"/>
       <c r="M31" s="3"/>
     </row>
     <row r="32" spans="2:13">
@@ -1542,7 +1656,7 @@
       <c r="I32" s="6"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
+      <c r="L32" s="9"/>
       <c r="M32" s="3"/>
     </row>
     <row r="33" spans="2:13">
@@ -1559,7 +1673,7 @@
       <c r="I33" s="6"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
+      <c r="L33" s="9"/>
       <c r="M33" s="3"/>
     </row>
   </sheetData>

--- a/baseDesign/基本設計/Q&A一覧.xlsx
+++ b/baseDesign/基本設計/Q&A一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qijinghong/Documents/tenji-sys/baseDesign/基本設計/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1EBD820-3C4C-A545-9AC2-D37652B8D5FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{587593E1-3652-AD4E-A564-3478F8427B28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" xr2:uid="{56B5A34F-4AC4-554E-A8FA-212A1A1CF3FD}"/>
+    <workbookView xWindow="840" yWindow="460" windowWidth="28800" windowHeight="17460" xr2:uid="{56B5A34F-4AC4-554E-A8FA-212A1A1CF3FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Q&amp;A一覧" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="36">
   <si>
     <t>No.</t>
     <phoneticPr fontId="2"/>
@@ -430,74 +430,159 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>今回設計の営業管理システムは　使う人が限られている為、パスワード必要なくて、権限で管理するようにしたらどうですか？
-営業担当、人事・総務、契約担当、社長など権限区別して、システムに見れる機能を制御します。</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">コンカイ </t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t xml:space="preserve">セッケイン </t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t xml:space="preserve">エイギョウ </t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t xml:space="preserve">カンリ </t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t xml:space="preserve">ツカウ </t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t xml:space="preserve">ヒト </t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t xml:space="preserve">カギラレテイルタメ </t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t xml:space="preserve">ヒツヨウ </t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t xml:space="preserve">ケンゲン </t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t xml:space="preserve">エイギョウ </t>
-    </rPh>
-    <rPh sb="60" eb="62">
-      <t xml:space="preserve">タントウ </t>
-    </rPh>
-    <rPh sb="63" eb="65">
-      <t xml:space="preserve">ジンジ </t>
-    </rPh>
-    <rPh sb="66" eb="68">
-      <t xml:space="preserve">ソウム </t>
-    </rPh>
-    <rPh sb="69" eb="71">
-      <t xml:space="preserve">ケイヤク </t>
-    </rPh>
-    <rPh sb="71" eb="73">
-      <t xml:space="preserve">タントウ </t>
-    </rPh>
-    <rPh sb="74" eb="76">
-      <t xml:space="preserve">シャチョウ </t>
-    </rPh>
-    <rPh sb="80" eb="82">
-      <t xml:space="preserve">クベツシテ </t>
-    </rPh>
-    <rPh sb="90" eb="91">
-      <t xml:space="preserve">ミレル </t>
-    </rPh>
-    <rPh sb="93" eb="95">
-      <t xml:space="preserve">キノウヲ </t>
-    </rPh>
-    <rPh sb="96" eb="98">
-      <t xml:space="preserve">セイギョ </t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>済</t>
     <rPh sb="0" eb="1">
       <t xml:space="preserve">ズミ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>今回設計の営業管理システムは　使う人が限られている為、パスワードがなくして、権限で管理するようにしたらどうですか？
+営業担当、人事・総務、契約担当、社長など権限区別して、システムに見れる機能を制御します。</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">コンカイ </t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">セッケイン </t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">エイギョウ </t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t xml:space="preserve">カンリ </t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t xml:space="preserve">ツカウ </t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t xml:space="preserve">ヒト </t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t xml:space="preserve">カギラレテイルタメ </t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t xml:space="preserve">ケンゲン </t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t xml:space="preserve">エイギョウ </t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t xml:space="preserve">タントウ </t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t xml:space="preserve">ジンジ </t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t xml:space="preserve">ソウム </t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t xml:space="preserve">ケイヤク </t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t xml:space="preserve">タントウ </t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t xml:space="preserve">シャチョウ </t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t xml:space="preserve">クベツシテ </t>
+    </rPh>
+    <rPh sb="90" eb="91">
+      <t xml:space="preserve">ミレル </t>
+    </rPh>
+    <rPh sb="93" eb="95">
+      <t xml:space="preserve">キノウヲ </t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t xml:space="preserve">セイギョ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>現行案件管理の中に　ステータスという管理タイトルがあります。どんな内容がありますでしょうか？
+※新営業フローの中に　スタータスは「営業待ち、営業中、営業中止、営業完了」という四つあります。足りないところがありますか？</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ゲンコウ </t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t xml:space="preserve">アンケン </t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">カンリ </t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t xml:space="preserve">ナイヨウ </t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t xml:space="preserve">アタラシイ </t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t xml:space="preserve">エイギョウ </t>
+    </rPh>
+    <rPh sb="87" eb="88">
+      <t xml:space="preserve">ヨツノ </t>
+    </rPh>
+    <rPh sb="94" eb="95">
+      <t xml:space="preserve">タリナイトコロ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>顧客ごと行動計画という管理用EXCELファイルあります。それは 評価タイミングに合わせて、事前に目標、計画を明確し、その後評価と次のサイクルにつなぐ改善点を管理するという役割ですか？
+※ここは　業務フローに未反映です。</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">コキャク </t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t xml:space="preserve">コウドウケイカク </t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t xml:space="preserve">カンリヨウ </t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t xml:space="preserve">ヨウ </t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t xml:space="preserve">ヒョウカ </t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t xml:space="preserve">アワセテ </t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t xml:space="preserve">ジゼン </t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t xml:space="preserve">モクヒョウ </t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t xml:space="preserve">ケイカク </t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t xml:space="preserve">メイカク </t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t xml:space="preserve">ヒョウカ </t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t xml:space="preserve">ツギノ </t>
+    </rPh>
+    <rPh sb="74" eb="77">
+      <t xml:space="preserve">カイゼンテンヲ </t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t xml:space="preserve">カンリ </t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t xml:space="preserve">ヤクワリ </t>
+    </rPh>
+    <rPh sb="97" eb="99">
+      <t xml:space="preserve">ギョウムフロー </t>
+    </rPh>
+    <rPh sb="103" eb="104">
+      <t xml:space="preserve">ミハンイ </t>
+    </rPh>
+    <rPh sb="104" eb="106">
+      <t xml:space="preserve">ハンエイ </t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -937,8 +1022,8 @@
   <dimension ref="B2:P33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+      <pane ySplit="2" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.85546875" defaultRowHeight="20"/>
@@ -1027,7 +1112,7 @@
         <v>44131</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M3" s="3"/>
       <c r="P3" s="1" t="s">
@@ -1065,7 +1150,7 @@
         <v>44131</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M4" s="3"/>
       <c r="P4" s="1" t="s">
@@ -1103,7 +1188,7 @@
         <v>44131</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M5" s="3"/>
       <c r="P5" s="1" t="s">
@@ -1141,7 +1226,7 @@
         <v>44131</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M6" s="3"/>
     </row>
@@ -1178,7 +1263,7 @@
         <v>44131</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M7" s="3"/>
     </row>
@@ -1213,7 +1298,7 @@
         <v>44131</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M8" s="3"/>
     </row>
@@ -1248,7 +1333,7 @@
         <v>44131</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M9" s="3"/>
     </row>
@@ -1264,14 +1349,14 @@
         <v>44146</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3" t="s">
         <v>14</v>
       </c>
       <c r="H10" s="4">
-        <v>44147</v>
+        <v>44152</v>
       </c>
       <c r="I10" s="6"/>
       <c r="J10" s="3"/>
@@ -1279,7 +1364,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="2:16">
+    <row r="11" spans="2:16" ht="105">
       <c r="B11" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1287,18 +1372,26 @@
       <c r="C11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="6"/>
+      <c r="D11" s="4">
+        <v>44148</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="G11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="4">
+        <v>44152</v>
+      </c>
       <c r="I11" s="6"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="9"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="2:16">
+    <row r="12" spans="2:16" ht="105">
       <c r="B12" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1306,11 +1399,19 @@
       <c r="C12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="6"/>
+      <c r="D12" s="4">
+        <v>44151</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="G12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="4">
+        <v>44152</v>
+      </c>
       <c r="I12" s="6"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>

--- a/baseDesign/基本設計/Q&A一覧.xlsx
+++ b/baseDesign/基本設計/Q&A一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qijinghong/Documents/tenji-sys/baseDesign/基本設計/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{587593E1-3652-AD4E-A564-3478F8427B28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8358238-6169-A045-8E2F-C5F89206C1B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="460" windowWidth="28800" windowHeight="17460" xr2:uid="{56B5A34F-4AC4-554E-A8FA-212A1A1CF3FD}"/>
+    <workbookView xWindow="3820" yWindow="460" windowWidth="28800" windowHeight="17460" xr2:uid="{56B5A34F-4AC4-554E-A8FA-212A1A1CF3FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Q&amp;A一覧" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="41">
   <si>
     <t>No.</t>
     <phoneticPr fontId="2"/>
@@ -528,8 +528,94 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>DingDingから正しい所属データを取れます。この権限管理でいいとお思います。</t>
+    <rPh sb="10" eb="11">
+      <t xml:space="preserve">タダシイ </t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t xml:space="preserve">ショゾク </t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t xml:space="preserve">トレマス </t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t xml:space="preserve">カンリ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>案件に対して、「提案中、応募中、中止」などあります。
+⇨案件と要員のスタータスを分けて管理します。
+案件：提案まち、提案中、応募中、中止、完了
+要員：営業待ち、営業中、営業完了、営業中止</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">アンケン </t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t xml:space="preserve">アンケン </t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t xml:space="preserve">ヨウイン </t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t xml:space="preserve">ワケテ </t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t xml:space="preserve">カンリ </t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t xml:space="preserve">アンケン </t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t xml:space="preserve">テイアン </t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t xml:space="preserve">テイアン </t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t xml:space="preserve">チュウ </t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t xml:space="preserve">オウボ </t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t xml:space="preserve">チュウ </t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t xml:space="preserve">チュウシ </t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t xml:space="preserve">カンリョウ </t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t xml:space="preserve">ヨウイン </t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t xml:space="preserve">エイギョウ </t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t xml:space="preserve">マチ </t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t xml:space="preserve">エイギョウ </t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t xml:space="preserve">チュウ </t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t xml:space="preserve">カンリョウ </t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t xml:space="preserve">エイギョウ </t>
+    </rPh>
+    <rPh sb="91" eb="93">
+      <t xml:space="preserve">チュウシ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>顧客ごと行動計画という管理用EXCELファイルあります。それは 評価タイミングに合わせて、事前に目標、計画を明確し、その後評価と次のサイクルにつなぐ改善点を管理するという役割ですか？
-※ここは　業務フローに未反映です。</t>
+※ここは　取引マスタのところに反映する</t>
     <rPh sb="0" eb="2">
       <t xml:space="preserve">コキャク </t>
     </rPh>
@@ -576,13 +662,115 @@
       <t xml:space="preserve">ヤクワリ </t>
     </rPh>
     <rPh sb="97" eb="99">
+      <t xml:space="preserve">トリヒキマスタ </t>
+    </rPh>
+    <rPh sb="107" eb="109">
+      <t xml:space="preserve">ハンエイスル </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>これは　担当者にとっていいお客様なので、重点的に３ヶ月単位に　計画し、もっと案件をもらうように行動計画を作成します。すべてのお客様が必要ない、担当者自分次第。業務フローに追加しましょう</t>
+    <rPh sb="4" eb="7">
+      <t xml:space="preserve">タントウシャ </t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t xml:space="preserve">ジュウテン </t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t xml:space="preserve">テキニ </t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t xml:space="preserve">タンイ </t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t xml:space="preserve">ケイカク </t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t xml:space="preserve">アンケン </t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t xml:space="preserve">コウドウ </t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t xml:space="preserve">ケイカクヲ </t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t xml:space="preserve">サクセイ </t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t xml:space="preserve">ヒツヨウ </t>
+    </rPh>
+    <rPh sb="71" eb="74">
+      <t xml:space="preserve">タントウシャ </t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t xml:space="preserve">ジブン </t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t xml:space="preserve">シダイ </t>
+    </rPh>
+    <rPh sb="79" eb="81">
       <t xml:space="preserve">ギョウムフロー </t>
     </rPh>
-    <rPh sb="103" eb="104">
-      <t xml:space="preserve">ミハンイ </t>
-    </rPh>
-    <rPh sb="104" eb="106">
-      <t xml:space="preserve">ハンエイ </t>
+    <rPh sb="85" eb="87">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>案件に営業担当者を配られていると思いますが、営業待ち要員は　営業担当者に配られていますか？もし配られているであれば　どのタイミング担当者を配られていますか？</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">アンケン </t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t xml:space="preserve">エイギョウシャ </t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t xml:space="preserve">クバラレテイルトオモイマスガ </t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t xml:space="preserve">エイギョウ </t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t xml:space="preserve">マチ </t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t xml:space="preserve">ヨウイン </t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t xml:space="preserve">エイギョウ </t>
+    </rPh>
+    <rPh sb="32" eb="35">
+      <t xml:space="preserve">タントウシャ </t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t xml:space="preserve">クバラレテイマスカ </t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t xml:space="preserve">クバラレテイル </t>
+    </rPh>
+    <rPh sb="65" eb="68">
+      <t xml:space="preserve">タントウシャ </t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t xml:space="preserve">クバラレテイマスカ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ないです。全部の営業担当者から営業できます。</t>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">ゼンブ </t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t xml:space="preserve">エイギョウ </t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t xml:space="preserve">タントウシャ </t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t xml:space="preserve">エイギョウ </t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1021,9 +1209,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EBC6D4D-3010-184B-A167-5CF8AAEFDFA5}">
   <dimension ref="B2:P33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.85546875" defaultRowHeight="20"/>
@@ -1358,10 +1546,18 @@
       <c r="H10" s="4">
         <v>44152</v>
       </c>
-      <c r="I10" s="6"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="9"/>
+      <c r="I10" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K10" s="4">
+        <v>44152</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="M10" s="3"/>
     </row>
     <row r="11" spans="2:16" ht="105">
@@ -1385,10 +1581,18 @@
       <c r="H11" s="4">
         <v>44152</v>
       </c>
-      <c r="I11" s="6"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="9"/>
+      <c r="I11" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11" s="4">
+        <v>44152</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="M11" s="3"/>
     </row>
     <row r="12" spans="2:16" ht="105">
@@ -1403,7 +1607,7 @@
         <v>44151</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3" t="s">
@@ -1412,13 +1616,21 @@
       <c r="H12" s="4">
         <v>44152</v>
       </c>
-      <c r="I12" s="6"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="9"/>
+      <c r="I12" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K12" s="4">
+        <v>44152</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" spans="2:16">
+    <row r="13" spans="2:16" ht="63">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1426,116 +1638,130 @@
       <c r="C13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="6"/>
+      <c r="D13" s="4">
+        <v>44154</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
+      <c r="G13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="4">
+        <v>44155</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K13" s="4">
+        <v>44154</v>
+      </c>
       <c r="L13" s="9"/>
       <c r="M13" s="3"/>
     </row>
-    <row r="14" spans="2:16">
+    <row r="14" spans="2:16" ht="105">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="D14" s="4"/>
       <c r="E14" s="6"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+      <c r="H14" s="4"/>
       <c r="I14" s="6"/>
       <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
+      <c r="K14" s="4"/>
       <c r="L14" s="9"/>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="2:16">
+    <row r="15" spans="2:16" ht="105">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+      <c r="D15" s="4"/>
       <c r="E15" s="6"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
+      <c r="H15" s="4"/>
       <c r="I15" s="6"/>
       <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
+      <c r="K15" s="4"/>
       <c r="L15" s="9"/>
       <c r="M15" s="3"/>
     </row>
-    <row r="16" spans="2:16">
+    <row r="16" spans="2:16" ht="105">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
+      <c r="D16" s="4"/>
       <c r="E16" s="6"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
+      <c r="H16" s="4"/>
       <c r="I16" s="6"/>
       <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
+      <c r="K16" s="4"/>
       <c r="L16" s="9"/>
       <c r="M16" s="3"/>
     </row>
-    <row r="17" spans="2:13">
+    <row r="17" spans="2:13" ht="105">
       <c r="B17" s="3">
         <f>B16+1</f>
         <v>15</v>
       </c>
       <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
+      <c r="D17" s="4"/>
       <c r="E17" s="6"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
+      <c r="H17" s="4"/>
       <c r="I17" s="6"/>
       <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
+      <c r="K17" s="4"/>
       <c r="L17" s="9"/>
       <c r="M17" s="3"/>
     </row>
-    <row r="18" spans="2:13">
+    <row r="18" spans="2:13" ht="105">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
+      <c r="D18" s="4"/>
       <c r="E18" s="6"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
+      <c r="H18" s="4"/>
       <c r="I18" s="6"/>
       <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
+      <c r="K18" s="4"/>
       <c r="L18" s="9"/>
       <c r="M18" s="3"/>
     </row>
-    <row r="19" spans="2:13">
+    <row r="19" spans="2:13" ht="105">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+      <c r="D19" s="4"/>
       <c r="E19" s="6"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
+      <c r="H19" s="4"/>
       <c r="I19" s="6"/>
       <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
+      <c r="K19" s="4"/>
       <c r="L19" s="9"/>
       <c r="M19" s="3"/>
     </row>

--- a/baseDesign/基本設計/Q&A一覧.xlsx
+++ b/baseDesign/基本設計/Q&A一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qijinghong/Documents/tenji-sys/baseDesign/基本設計/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8358238-6169-A045-8E2F-C5F89206C1B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0C749D0-B774-4E46-89FC-9700F723EC13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3820" yWindow="460" windowWidth="28800" windowHeight="17460" xr2:uid="{56B5A34F-4AC4-554E-A8FA-212A1A1CF3FD}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" xr2:uid="{56B5A34F-4AC4-554E-A8FA-212A1A1CF3FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Q&amp;A一覧" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="43">
   <si>
     <t>No.</t>
     <phoneticPr fontId="2"/>
@@ -771,6 +771,74 @@
     </rPh>
     <rPh sb="15" eb="17">
       <t xml:space="preserve">エイギョウ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>案件が発生する場合、面接に関する情報に　面接回数、同席かどうか以外に　面接場所、面接時間が一般的にこないですね？もし必要であれば　ER図に追加します。</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">アンケン </t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t xml:space="preserve">ハッセイスルバ </t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t xml:space="preserve">バアイ </t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t xml:space="preserve">メンセツ </t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t xml:space="preserve">ジョウホウ </t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t xml:space="preserve">メンセツ </t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t xml:space="preserve">カイスウ </t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t xml:space="preserve">ドウセキ </t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t xml:space="preserve">イガイニ </t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t xml:space="preserve">メンセツ </t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t xml:space="preserve">バショ </t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t xml:space="preserve">メンセツ </t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t xml:space="preserve">ジカン </t>
+    </rPh>
+    <rPh sb="45" eb="48">
+      <t xml:space="preserve">イッパンテキニ </t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t xml:space="preserve">ヒツヨウ </t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t xml:space="preserve">ズ </t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>肖秋宝</t>
+    <rPh sb="0" eb="1">
+      <t>xiao</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t xml:space="preserve">アキ </t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t xml:space="preserve">タカラ </t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1209,9 +1277,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EBC6D4D-3010-184B-A167-5CF8AAEFDFA5}">
   <dimension ref="B2:P33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K14" sqref="K14"/>
+      <selection pane="bottomLeft" activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.85546875" defaultRowHeight="20"/>
@@ -1660,27 +1728,39 @@
       <c r="K13" s="4">
         <v>44154</v>
       </c>
-      <c r="L13" s="9"/>
+      <c r="L13" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="M13" s="3"/>
     </row>
-    <row r="14" spans="2:16" ht="105">
+    <row r="14" spans="2:16" ht="63">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="6"/>
+      <c r="C14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="4">
+        <v>44155</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="4"/>
+      <c r="G14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="4">
+        <v>44159</v>
+      </c>
       <c r="I14" s="6"/>
       <c r="J14" s="3"/>
       <c r="K14" s="4"/>
       <c r="L14" s="9"/>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="2:16" ht="105">
+    <row r="15" spans="2:16">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1697,7 +1777,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="3"/>
     </row>
-    <row r="16" spans="2:16" ht="105">
+    <row r="16" spans="2:16">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1714,7 +1794,7 @@
       <c r="L16" s="9"/>
       <c r="M16" s="3"/>
     </row>
-    <row r="17" spans="2:13" ht="105">
+    <row r="17" spans="2:13">
       <c r="B17" s="3">
         <f>B16+1</f>
         <v>15</v>
@@ -1731,7 +1811,7 @@
       <c r="L17" s="9"/>
       <c r="M17" s="3"/>
     </row>
-    <row r="18" spans="2:13" ht="105">
+    <row r="18" spans="2:13">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1748,7 +1828,7 @@
       <c r="L18" s="9"/>
       <c r="M18" s="3"/>
     </row>
-    <row r="19" spans="2:13" ht="105">
+    <row r="19" spans="2:13">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
